--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Sopon</t>
   </si>
@@ -59,6 +59,39 @@
   </si>
   <si>
     <t>01649764655</t>
+  </si>
+  <si>
+    <t>Shaon</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
+    <t>Selim</t>
+  </si>
+  <si>
+    <t>0164567564</t>
+  </si>
+  <si>
+    <t>0164576654</t>
+  </si>
+  <si>
+    <t>Rofik</t>
+  </si>
+  <si>
+    <t>0154764797</t>
+  </si>
+  <si>
+    <t>Moin</t>
+  </si>
+  <si>
+    <t>0154676341</t>
+  </si>
+  <si>
+    <t>0146674647</t>
+  </si>
+  <si>
+    <t>0157866344</t>
   </si>
 </sst>
 </file>
@@ -407,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I5:I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,66 +453,104 @@
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45758</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45758</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Sopon</t>
   </si>
@@ -92,6 +92,39 @@
   </si>
   <si>
     <t>0157866344</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Mosaddek</t>
   </si>
 </sst>
 </file>
@@ -127,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,16 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
@@ -457,11 +494,43 @@
     <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45758</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -490,70 +559,90 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Sopon</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>Mosaddek</t>
   </si>
 </sst>
 </file>
@@ -166,11 +163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,10 +524,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45758</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -559,90 +556,70 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Sopon</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>01255</t>
+  </si>
+  <si>
+    <t>424545</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,63 +571,91 @@
       <c r="A3" s="4">
         <v>45759</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45759</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Sopon</t>
   </si>
@@ -169,17 +169,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +491,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,10 +539,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>45759</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -568,12 +571,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45759</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -582,12 +581,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45759</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -596,7 +591,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45759</v>
       </c>
       <c r="B5" t="s">
@@ -628,7 +623,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45759</v>
       </c>
       <c r="B6" t="s">
@@ -660,6 +655,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Sopon</t>
   </si>
@@ -169,20 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +488,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +536,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45759</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -571,8 +568,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -581,8 +582,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4">
+        <v>45759</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -591,7 +596,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>45759</v>
       </c>
       <c r="B5" t="s">
@@ -623,7 +628,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>45759</v>
       </c>
       <c r="B6" t="s">
@@ -655,10 +660,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Sopon</t>
   </si>
@@ -169,17 +169,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +491,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,10 +539,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>45759</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -568,12 +571,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>45759</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -582,12 +581,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45759</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -596,7 +591,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45759</v>
       </c>
       <c r="B5" t="s">
@@ -628,7 +623,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45759</v>
       </c>
       <c r="B6" t="s">
@@ -660,6 +655,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Sopon</t>
   </si>
@@ -134,6 +134,42 @@
   </si>
   <si>
     <t>424545</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>0154545</t>
+  </si>
+  <si>
+    <t>2445</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>afaf</t>
+  </si>
+  <si>
+    <t>014545</t>
+  </si>
+  <si>
+    <t>04554</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>ddaff</t>
+  </si>
+  <si>
+    <t>01542</t>
+  </si>
+  <si>
+    <t>05442</t>
   </si>
 </sst>
 </file>
@@ -491,7 +527,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +615,24 @@
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -588,6 +642,24 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -205,14 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,7 +524,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +572,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45759</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -607,8 +604,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -635,8 +632,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -663,9 +660,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45759</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -695,9 +690,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45759</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -729,7 +722,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Sopon</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>05442</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +540,10 @@
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -571,7 +575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45759</v>
       </c>
@@ -602,8 +606,14 @@
       <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -631,7 +641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -659,7 +669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>11</v>
@@ -689,7 +699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>12</v>

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Sopon</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Abdullah</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +577,9 @@
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">

--- a/Duty.xlsx
+++ b/Duty.xlsx
@@ -14,37 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
-  <si>
-    <t>Sopon</t>
-  </si>
-  <si>
-    <t>Sumon</t>
-  </si>
-  <si>
-    <t>01784917724</t>
-  </si>
-  <si>
-    <t>01969750281</t>
-  </si>
-  <si>
-    <t>Alauddin</t>
-  </si>
-  <si>
-    <t>Fuad</t>
-  </si>
-  <si>
-    <t>01964565464</t>
-  </si>
-  <si>
-    <t>01649764654</t>
-  </si>
-  <si>
-    <t>Aluddin</t>
-  </si>
-  <si>
-    <t>Ainal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Morning</t>
   </si>
@@ -55,48 +25,6 @@
     <t>Night</t>
   </si>
   <si>
-    <t>01964565465</t>
-  </si>
-  <si>
-    <t>01649764655</t>
-  </si>
-  <si>
-    <t>Shaon</t>
-  </si>
-  <si>
-    <t>Faruk</t>
-  </si>
-  <si>
-    <t>Selim</t>
-  </si>
-  <si>
-    <t>0164567564</t>
-  </si>
-  <si>
-    <t>0164576654</t>
-  </si>
-  <si>
-    <t>Rofik</t>
-  </si>
-  <si>
-    <t>0154764797</t>
-  </si>
-  <si>
-    <t>Moin</t>
-  </si>
-  <si>
-    <t>0154676341</t>
-  </si>
-  <si>
-    <t>0146674647</t>
-  </si>
-  <si>
-    <t>0157866344</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -124,66 +52,179 @@
     <t>J</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>01255</t>
-  </si>
-  <si>
-    <t>424545</t>
-  </si>
-  <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>0154545</t>
-  </si>
-  <si>
-    <t>2445</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>afaf</t>
-  </si>
-  <si>
-    <t>014545</t>
-  </si>
-  <si>
-    <t>04554</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>ddaff</t>
-  </si>
-  <si>
-    <t>01542</t>
-  </si>
-  <si>
-    <t>05442</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Alauddin (LM)</t>
+  </si>
+  <si>
+    <t>Sajjad (LM)</t>
+  </si>
+  <si>
+    <t>Mostak (LM)</t>
+  </si>
+  <si>
+    <t>Jonny (LH)</t>
+  </si>
+  <si>
+    <t>Najmul (LEM)</t>
+  </si>
+  <si>
+    <t>Al-Amin (EA)</t>
+  </si>
+  <si>
+    <t>Sopon  (LM)</t>
+  </si>
+  <si>
+    <t>Partho (LM)</t>
+  </si>
+  <si>
+    <t>Monjur Kader (LM)</t>
+  </si>
+  <si>
+    <t>Abdus Sattar (LM)</t>
+  </si>
+  <si>
+    <t>Mosaddek (LM)</t>
+  </si>
+  <si>
+    <t>Selim (LH)</t>
+  </si>
+  <si>
+    <t>Rakib (LH)</t>
+  </si>
+  <si>
+    <t>Sahjahan (LEM)</t>
+  </si>
+  <si>
+    <t>Anowar (LEM)</t>
+  </si>
+  <si>
+    <t>Mona (LM)</t>
+  </si>
+  <si>
+    <t>Shamim (LH)</t>
+  </si>
+  <si>
+    <t>Mamun (LEM)</t>
+  </si>
+  <si>
+    <t>Driver - Shetu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver - </t>
+  </si>
+  <si>
+    <t>Abdus Salam (LM)</t>
+  </si>
+  <si>
+    <t>Fuad (LEM)</t>
+  </si>
+  <si>
+    <t>Maruf (LH)</t>
+  </si>
+  <si>
+    <t>Driver - Debu</t>
+  </si>
+  <si>
+    <t>Sumon (LM)</t>
+  </si>
+  <si>
+    <t>Nobi (LH)</t>
+  </si>
+  <si>
+    <t>Arafat (LH)</t>
+  </si>
+  <si>
+    <t>Driver - Hasan</t>
+  </si>
+  <si>
+    <t>Shaon Das</t>
+  </si>
+  <si>
+    <t>Omor Faruk</t>
+  </si>
+  <si>
+    <t>Abdur Rafiq</t>
+  </si>
+  <si>
+    <t>Selim Reza</t>
+  </si>
+  <si>
+    <t>Moin Uddin</t>
+  </si>
+  <si>
+    <t>Abul Kalam Azad</t>
+  </si>
+  <si>
+    <t>Ainul Haque</t>
+  </si>
+  <si>
+    <t>Masud Rana</t>
+  </si>
+  <si>
+    <t>Monjur Ahmed</t>
+  </si>
+  <si>
+    <t>01714602628</t>
+  </si>
+  <si>
+    <t>01719106824</t>
+  </si>
+  <si>
+    <t>01758212103</t>
+  </si>
+  <si>
+    <t>01916099091</t>
+  </si>
+  <si>
+    <t>01712441588</t>
+  </si>
+  <si>
+    <t>01711467393</t>
+  </si>
+  <si>
+    <t>01712990795</t>
+  </si>
+  <si>
+    <t>01705614054</t>
+  </si>
+  <si>
+    <t>01718676281</t>
+  </si>
+  <si>
+    <t>01674272353</t>
+  </si>
+  <si>
+    <t>01719531782</t>
+  </si>
+  <si>
+    <t>01712439152</t>
+  </si>
+  <si>
+    <t>01914595295</t>
+  </si>
+  <si>
+    <t>01703409900</t>
+  </si>
+  <si>
+    <t>01756101919</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,17 +252,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,218 +572,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45759</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C19" s="6"/>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A6"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
